--- a/raw_data/20200818_saline/20200818_Sensor0_Test_14.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_14.xlsx
@@ -1,523 +1,939 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F15E726-A4CA-4E47-9594-49EBA84ECE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>11702.852271</v>
       </c>
       <c r="B2" s="1">
-        <v>3.250792</v>
+        <v>3.2507920000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>903.559000</v>
+        <v>903.55899999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.714000</v>
+        <v>-195.714</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>11712.977137</v>
       </c>
       <c r="G2" s="1">
-        <v>3.253605</v>
+        <v>3.2536049999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>919.988000</v>
+        <v>919.98800000000006</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.725000</v>
+        <v>-165.72499999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>11723.100947</v>
+        <v>11723.100947000001</v>
       </c>
       <c r="L2" s="1">
-        <v>3.256417</v>
+        <v>3.2564169999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>941.859000</v>
+        <v>941.85900000000004</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.423000</v>
+        <v>-118.423</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>11733.305638</v>
@@ -526,225 +942,225 @@
         <v>3.259252</v>
       </c>
       <c r="R2" s="1">
-        <v>948.053000</v>
+        <v>948.053</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.135000</v>
+        <v>-103.13500000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>11743.903161</v>
       </c>
       <c r="V2" s="1">
-        <v>3.262195</v>
+        <v>3.2621950000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>954.338000</v>
+        <v>954.33799999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.475900</v>
+        <v>-89.475899999999996</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>11753.997242</v>
+        <v>11753.997241999999</v>
       </c>
       <c r="AA2" s="1">
         <v>3.264999</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.341000</v>
+        <v>961.34100000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.120000</v>
+        <v>-80.12</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>11764.553596</v>
       </c>
       <c r="AF2" s="1">
-        <v>3.267932</v>
+        <v>3.2679320000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.284000</v>
+        <v>966.28399999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.766100</v>
+        <v>-79.766099999999994</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>11774.969616</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.270825</v>
+        <v>3.2708249999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.190000</v>
+        <v>974.19</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.664700</v>
+        <v>-87.664699999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>11785.289345</v>
+        <v>11785.289344999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.273691</v>
+        <v>3.2736909999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.402000</v>
+        <v>983.40200000000004</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.675000</v>
+        <v>-102.675</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>11795.935476</v>
+        <v>11795.935476000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>3.276649</v>
+        <v>3.2766489999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.834000</v>
+        <v>994.83399999999995</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.285000</v>
+        <v>-124.285</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>11807.111359</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.279753</v>
+        <v>3.2797529999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.470000</v>
+        <v>1004.47</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.088000</v>
+        <v>-143.08799999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>11818.069970</v>
+        <v>11818.06997</v>
       </c>
       <c r="BE2" s="1">
         <v>3.282797</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.690000</v>
+        <v>1049.69</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.126000</v>
+        <v>-228.126</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>11829.078151</v>
       </c>
       <c r="BJ2" s="1">
-        <v>3.285855</v>
+        <v>3.2858550000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1128.910000</v>
+        <v>1128.9100000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-364.816000</v>
+        <v>-364.81599999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>11840.794184</v>
       </c>
       <c r="BO2" s="1">
-        <v>3.289109</v>
+        <v>3.2891089999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1260.280000</v>
+        <v>1260.28</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.709000</v>
+        <v>-576.70899999999995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>11851.141195</v>
       </c>
       <c r="BT2" s="1">
-        <v>3.291984</v>
+        <v>3.2919839999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1408.090000</v>
+        <v>1408.09</v>
       </c>
       <c r="BV2" s="1">
-        <v>-803.053000</v>
+        <v>-803.053</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>11861.827767</v>
+        <v>11861.827767000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>3.294952</v>
+        <v>3.2949519999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1571.330000</v>
+        <v>1571.33</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1039.790000</v>
+        <v>-1039.79</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>11873.329239</v>
+        <v>11873.329239000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>3.298147</v>
+        <v>3.2981470000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>1983.460000</v>
+        <v>1983.46</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1591.630000</v>
+        <v>-1591.63</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>11703.211410</v>
+        <v>11703.21141</v>
       </c>
       <c r="B3" s="1">
-        <v>3.250892</v>
+        <v>3.2508919999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>903.620000</v>
+        <v>903.62</v>
       </c>
       <c r="D3" s="1">
-        <v>-195.564000</v>
+        <v>-195.56399999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>11713.324304</v>
@@ -753,241 +1169,241 @@
         <v>3.253701</v>
       </c>
       <c r="H3" s="1">
-        <v>920.446000</v>
+        <v>920.44600000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.642000</v>
+        <v>-165.642</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>11723.471955</v>
+        <v>11723.471955000001</v>
       </c>
       <c r="L3" s="1">
-        <v>3.256520</v>
+        <v>3.2565200000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>941.728000</v>
+        <v>941.72799999999995</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.315000</v>
+        <v>-118.315</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>11733.691061</v>
       </c>
       <c r="Q3" s="1">
-        <v>3.259359</v>
+        <v>3.2593589999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>948.050000</v>
+        <v>948.05</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.109000</v>
+        <v>-103.10899999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>11744.314343</v>
       </c>
       <c r="V3" s="1">
-        <v>3.262310</v>
+        <v>3.2623099999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>954.250000</v>
+        <v>954.25</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.482700</v>
+        <v>-89.482699999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>11754.430250</v>
+        <v>11754.430249999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.265120</v>
+        <v>3.26512</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.342000</v>
+        <v>961.34199999999998</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.204200</v>
+        <v>-80.2042</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>11764.958864</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.268044</v>
+        <v>3.2680440000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.245000</v>
+        <v>966.245</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.754600</v>
+        <v>-79.754599999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>11775.079237</v>
       </c>
       <c r="AK3" s="1">
-        <v>3.270855</v>
+        <v>3.2708550000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.188000</v>
+        <v>974.18799999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.683500</v>
+        <v>-87.683499999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>11785.672289</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.273798</v>
+        <v>3.2737980000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.397000</v>
+        <v>983.39700000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.675000</v>
+        <v>-102.675</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>11796.334294</v>
       </c>
       <c r="AU3" s="1">
-        <v>3.276760</v>
+        <v>3.2767599999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.845000</v>
+        <v>994.84500000000003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.312000</v>
+        <v>-124.312</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>11807.509124</v>
       </c>
       <c r="AZ3" s="1">
-        <v>3.279864</v>
+        <v>3.2798639999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.450000</v>
+        <v>1004.45</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.079000</v>
+        <v>-143.07900000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>11818.805013</v>
+        <v>11818.805012999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>3.283001</v>
+        <v>3.2830010000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.650000</v>
+        <v>1049.6500000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.114000</v>
+        <v>-228.114</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>11829.832567</v>
+        <v>11829.832566999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>3.286065</v>
+        <v>3.2860649999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1128.900000</v>
+        <v>1128.9000000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-364.821000</v>
+        <v>-364.82100000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>11841.204375</v>
+        <v>11841.204374999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>3.289223</v>
+        <v>3.2892229999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1260.260000</v>
+        <v>1260.26</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.715000</v>
+        <v>-576.71500000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>11851.566298</v>
       </c>
       <c r="BT3" s="1">
-        <v>3.292102</v>
+        <v>3.2921019999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1408.110000</v>
+        <v>1408.11</v>
       </c>
       <c r="BV3" s="1">
-        <v>-802.992000</v>
+        <v>-802.99199999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>11862.288283</v>
       </c>
       <c r="BY3" s="1">
-        <v>3.295080</v>
+        <v>3.29508</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1571.390000</v>
+        <v>1571.39</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1039.880000</v>
+        <v>-1039.8800000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>11874.191276</v>
       </c>
       <c r="CD3" s="1">
-        <v>3.298386</v>
+        <v>3.2983859999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>1985.490000</v>
+        <v>1985.49</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1592.480000</v>
+        <v>-1592.48</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>11703.555133</v>
       </c>
@@ -995,28 +1411,28 @@
         <v>3.250988</v>
       </c>
       <c r="C4" s="1">
-        <v>903.612000</v>
+        <v>903.61199999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.610000</v>
+        <v>-195.61</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>11713.670016</v>
       </c>
       <c r="G4" s="1">
-        <v>3.253797</v>
+        <v>3.2537970000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>920.021000</v>
+        <v>920.02099999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.715000</v>
+        <v>-165.715</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>11723.883634</v>
@@ -1025,88 +1441,88 @@
         <v>3.256634</v>
       </c>
       <c r="M4" s="1">
-        <v>941.904000</v>
+        <v>941.904</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.351000</v>
+        <v>-118.351</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>11734.111637</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.259475</v>
+        <v>3.2594750000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>948.079000</v>
+        <v>948.07899999999995</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.093000</v>
+        <v>-103.093</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>11744.627319</v>
+        <v>11744.627318999999</v>
       </c>
       <c r="V4" s="1">
-        <v>3.262396</v>
+        <v>3.2623959999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>954.361000</v>
+        <v>954.36099999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.503600</v>
+        <v>-89.503600000000006</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>11754.763103</v>
+        <v>11754.763102999999</v>
       </c>
       <c r="AA4" s="1">
         <v>3.265212</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.364000</v>
+        <v>961.36400000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.061500</v>
+        <v>-80.061499999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>11765.304539</v>
+        <v>11765.304539000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.268140</v>
+        <v>3.2681399999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.278000</v>
+        <v>966.27800000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.787800</v>
+        <v>-79.787800000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>11775.426398</v>
       </c>
       <c r="AK4" s="1">
-        <v>3.270952</v>
+        <v>3.2709519999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.227000</v>
+        <v>974.22699999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.666800</v>
+        <v>-87.666799999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>11786.031395</v>
@@ -1115,43 +1531,43 @@
         <v>3.273898</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.407000</v>
+        <v>983.40700000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.679000</v>
+        <v>-102.679</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>11797.064865</v>
       </c>
       <c r="AU4" s="1">
-        <v>3.276962</v>
+        <v>3.2769620000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.836000</v>
+        <v>994.83600000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.300000</v>
+        <v>-124.3</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>11808.247172</v>
+        <v>11808.247171999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>3.280069</v>
+        <v>3.2800690000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.430000</v>
+        <v>1004.43</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.095000</v>
+        <v>-143.095</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>11819.165604</v>
@@ -1160,120 +1576,120 @@
         <v>3.283102</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.690000</v>
+        <v>1049.69</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.133000</v>
+        <v>-228.13300000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>11830.236837</v>
       </c>
       <c r="BJ4" s="1">
-        <v>3.286177</v>
+        <v>3.2861769999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1128.880000</v>
+        <v>1128.8800000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-364.839000</v>
+        <v>-364.839</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>11841.625446</v>
       </c>
       <c r="BO4" s="1">
-        <v>3.289340</v>
+        <v>3.2893400000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1260.290000</v>
+        <v>1260.29</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.723000</v>
+        <v>-576.72299999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>11852.281529</v>
       </c>
       <c r="BT4" s="1">
-        <v>3.292300</v>
+        <v>3.2923</v>
       </c>
       <c r="BU4" s="1">
-        <v>1408.110000</v>
+        <v>1408.11</v>
       </c>
       <c r="BV4" s="1">
-        <v>-803.066000</v>
+        <v>-803.06600000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>11863.037274</v>
       </c>
       <c r="BY4" s="1">
-        <v>3.295288</v>
+        <v>3.2952880000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1571.390000</v>
+        <v>1571.39</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1039.730000</v>
+        <v>-1039.73</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>11874.439275</v>
+        <v>11874.439275000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>3.298455</v>
+        <v>3.2984550000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1985.540000</v>
+        <v>1985.54</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1590.690000</v>
+        <v>-1590.69</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>11703.972237</v>
       </c>
       <c r="B5" s="1">
-        <v>3.251103</v>
+        <v>3.2511030000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>903.598000</v>
+        <v>903.59799999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>-195.432000</v>
+        <v>-195.43199999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>11714.086656</v>
+        <v>11714.086655999999</v>
       </c>
       <c r="G5" s="1">
-        <v>3.253913</v>
+        <v>3.2539129999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>920.669000</v>
+        <v>920.66899999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.344000</v>
+        <v>-165.34399999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>11724.202104</v>
@@ -1282,226 +1698,226 @@
         <v>3.256723</v>
       </c>
       <c r="M5" s="1">
-        <v>941.822000</v>
+        <v>941.822</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.507000</v>
+        <v>-118.50700000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>11734.408246</v>
+        <v>11734.408246000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>3.259558</v>
+        <v>3.2595580000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>948.068000</v>
+        <v>948.06799999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.113000</v>
+        <v>-103.113</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>11744.971190</v>
+        <v>11744.97119</v>
       </c>
       <c r="V5" s="1">
-        <v>3.262492</v>
+        <v>3.2624919999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>954.341000</v>
+        <v>954.34100000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.486800</v>
+        <v>-89.486800000000002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>11755.111295</v>
+        <v>11755.111295000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>3.265309</v>
+        <v>3.2653089999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.343000</v>
+        <v>961.34299999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.043800</v>
+        <v>-80.043800000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>11765.647803</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.268236</v>
+        <v>3.2682359999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.270000</v>
+        <v>966.27</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.804400</v>
+        <v>-79.804400000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>11775.775117</v>
+        <v>11775.775116999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>3.271049</v>
+        <v>3.2710490000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.186000</v>
+        <v>974.18600000000004</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.661200</v>
+        <v>-87.661199999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>11786.758030</v>
+        <v>11786.758030000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>3.274099</v>
+        <v>3.2740990000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.418000</v>
+        <v>983.41800000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.656000</v>
+        <v>-102.65600000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>11797.443841</v>
       </c>
       <c r="AU5" s="1">
-        <v>3.277068</v>
+        <v>3.2770679999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.817000</v>
+        <v>994.81700000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.283000</v>
+        <v>-124.283</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>11808.607762</v>
       </c>
       <c r="AZ5" s="1">
-        <v>3.280169</v>
+        <v>3.2801689999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.450000</v>
+        <v>1004.45</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.101000</v>
+        <v>-143.101</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>11819.530660</v>
+        <v>11819.53066</v>
       </c>
       <c r="BE5" s="1">
-        <v>3.283203</v>
+        <v>3.2832029999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.700000</v>
+        <v>1049.7</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.146000</v>
+        <v>-228.14599999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>11830.609797</v>
+        <v>11830.609796999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>3.286280</v>
+        <v>3.2862800000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1128.890000</v>
+        <v>1128.8900000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-364.836000</v>
+        <v>-364.83600000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>11842.332246</v>
       </c>
       <c r="BO5" s="1">
-        <v>3.289537</v>
+        <v>3.2895370000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1260.320000</v>
+        <v>1260.32</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.751000</v>
+        <v>-576.75099999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>11852.414425</v>
+        <v>11852.414425000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>3.292337</v>
+        <v>3.2923369999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1408.220000</v>
+        <v>1408.22</v>
       </c>
       <c r="BV5" s="1">
-        <v>-802.990000</v>
+        <v>-802.99</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>11863.169675</v>
+        <v>11863.169674999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>3.295325</v>
+        <v>3.2953250000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1571.390000</v>
+        <v>1571.39</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1039.780000</v>
+        <v>-1039.78</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>11874.974954</v>
+        <v>11874.974953999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>3.298604</v>
+        <v>3.2986040000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1983.490000</v>
+        <v>1983.49</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1591.520000</v>
+        <v>-1591.52</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>11704.264877</v>
       </c>
@@ -1509,43 +1925,43 @@
         <v>3.251185</v>
       </c>
       <c r="C6" s="1">
-        <v>903.556000</v>
+        <v>903.55600000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.714000</v>
+        <v>-195.714</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>11714.362958</v>
       </c>
       <c r="G6" s="1">
-        <v>3.253990</v>
+        <v>3.2539899999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>920.329000</v>
+        <v>920.32899999999995</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.782000</v>
+        <v>-165.78200000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>11724.548802</v>
+        <v>11724.548801999999</v>
       </c>
       <c r="L6" s="1">
-        <v>3.256819</v>
+        <v>3.2568190000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>941.606000</v>
+        <v>941.60599999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.319000</v>
+        <v>-118.319</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>11734.758421</v>
@@ -1554,13 +1970,13 @@
         <v>3.259655</v>
       </c>
       <c r="R6" s="1">
-        <v>948.089000</v>
+        <v>948.08900000000006</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.123000</v>
+        <v>-103.123</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>11745.315767</v>
@@ -1569,88 +1985,88 @@
         <v>3.262588</v>
       </c>
       <c r="W6" s="1">
-        <v>954.239000</v>
+        <v>954.23900000000003</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.462700</v>
+        <v>-89.462699999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>11755.458990</v>
+        <v>11755.458989999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>3.265405</v>
+        <v>3.2654049999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.269000</v>
+        <v>961.26900000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.117000</v>
+        <v>-80.117000000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>11766.334234</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.268426</v>
+        <v>3.2684259999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.259000</v>
+        <v>966.25900000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.772800</v>
+        <v>-79.772800000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>11776.474445</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.271243</v>
+        <v>3.2712430000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.186000</v>
+        <v>974.18600000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.671200</v>
+        <v>-87.671199999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>11787.137936</v>
+        <v>11787.137935999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>3.274205</v>
+        <v>3.2742049999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.425000</v>
+        <v>983.42499999999995</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.674000</v>
+        <v>-102.67400000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>11797.812832</v>
       </c>
       <c r="AU6" s="1">
-        <v>3.277170</v>
+        <v>3.2771699999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.837000</v>
+        <v>994.83699999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.287000</v>
+        <v>-124.28700000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>11808.964881</v>
@@ -1659,58 +2075,58 @@
         <v>3.280268</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.460000</v>
+        <v>1004.46</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.095000</v>
+        <v>-143.095</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>11820.192819</v>
       </c>
       <c r="BE6" s="1">
-        <v>3.283387</v>
+        <v>3.2833869999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.670000</v>
+        <v>1049.67</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.129000</v>
+        <v>-228.12899999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>11831.288361</v>
+        <v>11831.288361000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>3.286469</v>
+        <v>3.2864689999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1128.890000</v>
+        <v>1128.8900000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-364.828000</v>
+        <v>-364.82799999999997</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>11842.443349</v>
+        <v>11842.443348999999</v>
       </c>
       <c r="BO6" s="1">
         <v>3.289568</v>
       </c>
       <c r="BP6" s="1">
-        <v>1260.280000</v>
+        <v>1260.28</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.689000</v>
+        <v>-576.68899999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>11852.851895</v>
@@ -1719,60 +2135,60 @@
         <v>3.292459</v>
       </c>
       <c r="BU6" s="1">
-        <v>1408.240000</v>
+        <v>1408.24</v>
       </c>
       <c r="BV6" s="1">
-        <v>-802.939000</v>
+        <v>-802.93899999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>11863.597225</v>
       </c>
       <c r="BY6" s="1">
-        <v>3.295444</v>
+        <v>3.2954439999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1571.480000</v>
+        <v>1571.48</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1039.730000</v>
+        <v>-1039.73</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>11875.513610</v>
+        <v>11875.51361</v>
       </c>
       <c r="CD6" s="1">
-        <v>3.298754</v>
+        <v>3.2987540000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>1985.350000</v>
+        <v>1985.35</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1591.970000</v>
+        <v>-1591.97</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>11704.607626</v>
+        <v>11704.607626000001</v>
       </c>
       <c r="B7" s="1">
-        <v>3.251280</v>
+        <v>3.2512799999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>903.623000</v>
+        <v>903.62300000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-195.452000</v>
+        <v>-195.452</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>11714.708144</v>
@@ -1781,43 +2197,43 @@
         <v>3.254086</v>
       </c>
       <c r="H7" s="1">
-        <v>920.370000</v>
+        <v>920.37</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.393000</v>
+        <v>-165.393</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>11724.894977</v>
       </c>
       <c r="L7" s="1">
-        <v>3.256915</v>
+        <v>3.2569149999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>941.838000</v>
+        <v>941.83799999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.324000</v>
+        <v>-118.324</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>11735.108595</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.259752</v>
+        <v>3.2597520000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>948.079000</v>
+        <v>948.07899999999995</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.124000</v>
+        <v>-103.124</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>11746.002261</v>
@@ -1826,225 +2242,225 @@
         <v>3.262778</v>
       </c>
       <c r="W7" s="1">
-        <v>954.287000</v>
+        <v>954.28700000000003</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.457400</v>
+        <v>-89.457400000000007</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>11756.157815</v>
       </c>
       <c r="AA7" s="1">
-        <v>3.265599</v>
+        <v>3.2655989999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.384000</v>
+        <v>961.38400000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.133100</v>
+        <v>-80.133099999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>11766.677465</v>
+        <v>11766.677465000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.268522</v>
+        <v>3.2685219999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.270000</v>
+        <v>966.27</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.813900</v>
+        <v>-79.813900000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>11776.820652</v>
       </c>
       <c r="AK7" s="1">
-        <v>3.271339</v>
+        <v>3.2713390000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.212000</v>
+        <v>974.21199999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.689900</v>
+        <v>-87.689899999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>11787.527330</v>
+        <v>11787.527330000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>3.274313</v>
+        <v>3.2743129999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.427000</v>
+        <v>983.42700000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.691000</v>
+        <v>-102.691</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>11798.484912</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.277357</v>
+        <v>3.2773569999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.830000</v>
+        <v>994.83</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.299000</v>
+        <v>-124.29900000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>11809.623570</v>
+        <v>11809.62357</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.280451</v>
+        <v>3.2804509999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.450000</v>
+        <v>1004.45</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.092000</v>
+        <v>-143.09200000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>11820.640739</v>
       </c>
       <c r="BE7" s="1">
-        <v>3.283511</v>
+        <v>3.2835109999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.660000</v>
+        <v>1049.6600000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.135000</v>
+        <v>-228.13499999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>11831.392980</v>
+        <v>11831.392980000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>3.286498</v>
+        <v>3.2864979999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1128.900000</v>
+        <v>1128.9000000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-364.864000</v>
+        <v>-364.86399999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>11842.867430</v>
+        <v>11842.86743</v>
       </c>
       <c r="BO7" s="1">
         <v>3.289685</v>
       </c>
       <c r="BP7" s="1">
-        <v>1260.280000</v>
+        <v>1260.28</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.722000</v>
+        <v>-576.72199999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>11853.281929</v>
+        <v>11853.281929000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>3.292578</v>
+        <v>3.2925779999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1408.220000</v>
+        <v>1408.22</v>
       </c>
       <c r="BV7" s="1">
-        <v>-803.015000</v>
+        <v>-803.01499999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>11864.012377</v>
+        <v>11864.012376999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>3.295559</v>
+        <v>3.2955589999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1571.290000</v>
+        <v>1571.29</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1039.870000</v>
+        <v>-1039.8699999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>11876.053753</v>
       </c>
       <c r="CD7" s="1">
-        <v>3.298904</v>
+        <v>3.2989039999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1983.680000</v>
+        <v>1983.68</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1590.440000</v>
+        <v>-1590.44</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>11704.945916</v>
+        <v>11704.945916000001</v>
       </c>
       <c r="B8" s="1">
-        <v>3.251374</v>
+        <v>3.2513740000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>903.636000</v>
+        <v>903.63599999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.585000</v>
+        <v>-195.58500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>11715.053358</v>
+        <v>11715.053357999999</v>
       </c>
       <c r="G8" s="1">
         <v>3.254181</v>
       </c>
       <c r="H8" s="1">
-        <v>920.316000</v>
+        <v>920.31600000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.727000</v>
+        <v>-165.727</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>11725.586432</v>
@@ -2053,178 +2469,178 @@
         <v>3.257107</v>
       </c>
       <c r="M8" s="1">
-        <v>941.757000</v>
+        <v>941.75699999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.362000</v>
+        <v>-118.36199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>11735.805475</v>
+        <v>11735.805474999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.259946</v>
+        <v>3.2599459999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>948.056000</v>
+        <v>948.05600000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.119000</v>
+        <v>-103.119</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>11746.345958</v>
       </c>
       <c r="V8" s="1">
-        <v>3.262874</v>
+        <v>3.2628740000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>954.369000</v>
+        <v>954.36900000000003</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.481500</v>
+        <v>-89.481499999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>11756.505015</v>
+        <v>11756.505015000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>3.265696</v>
+        <v>3.2656960000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.360000</v>
+        <v>961.36</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.074500</v>
+        <v>-80.0745</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>11767.024171</v>
+        <v>11767.024170999999</v>
       </c>
       <c r="AF8" s="1">
         <v>3.268618</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.252000</v>
+        <v>966.25199999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.773300</v>
+        <v>-79.773300000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>11777.478348</v>
+        <v>11777.478348000001</v>
       </c>
       <c r="AK8" s="1">
         <v>3.271522</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.208000</v>
+        <v>974.20799999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.688200</v>
+        <v>-87.688199999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>11788.193421</v>
       </c>
       <c r="AP8" s="1">
-        <v>3.274498</v>
+        <v>3.2744979999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.438000</v>
+        <v>983.43799999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.686000</v>
+        <v>-102.68600000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>11798.939744</v>
+        <v>11798.939743999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>3.277483</v>
+        <v>3.2774830000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.831000</v>
+        <v>994.83100000000002</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.285000</v>
+        <v>-124.285</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>11810.040704</v>
+        <v>11810.040703999999</v>
       </c>
       <c r="AZ8" s="1">
         <v>3.280567</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.430000</v>
+        <v>1004.43</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.074000</v>
+        <v>-143.07400000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>11821.002318</v>
+        <v>11821.002318000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>3.283612</v>
+        <v>3.2836120000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.680000</v>
+        <v>1049.68</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.123000</v>
+        <v>-228.12299999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>11831.763492</v>
       </c>
       <c r="BJ8" s="1">
-        <v>3.286601</v>
+        <v>3.2866010000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1128.890000</v>
+        <v>1128.8900000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-364.854000</v>
+        <v>-364.85399999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>11843.265222</v>
       </c>
       <c r="BO8" s="1">
-        <v>3.289796</v>
+        <v>3.2897959999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1260.290000</v>
+        <v>1260.29</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.711000</v>
+        <v>-576.71100000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>11853.708487</v>
@@ -2233,120 +2649,120 @@
         <v>3.292697</v>
       </c>
       <c r="BU8" s="1">
-        <v>1408.270000</v>
+        <v>1408.27</v>
       </c>
       <c r="BV8" s="1">
-        <v>-803.049000</v>
+        <v>-803.04899999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>11864.466713</v>
       </c>
       <c r="BY8" s="1">
-        <v>3.295685</v>
+        <v>3.2956850000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1571.400000</v>
+        <v>1571.4</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1039.840000</v>
+        <v>-1039.8399999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>11876.595881</v>
+        <v>11876.595880999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>3.299054</v>
+        <v>3.2990539999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1984.320000</v>
+        <v>1984.32</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1591.950000</v>
+        <v>-1591.95</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>11705.627915</v>
+        <v>11705.627914999999</v>
       </c>
       <c r="B9" s="1">
         <v>3.251563</v>
       </c>
       <c r="C9" s="1">
-        <v>903.500000</v>
+        <v>903.5</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.580000</v>
+        <v>-195.58</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>11715.741310</v>
+        <v>11715.741309999999</v>
       </c>
       <c r="G9" s="1">
-        <v>3.254373</v>
+        <v>3.2543730000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>920.712000</v>
+        <v>920.71199999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.577000</v>
+        <v>-165.577</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>11725.929633</v>
       </c>
       <c r="L9" s="1">
-        <v>3.257203</v>
+        <v>3.2572030000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>941.755000</v>
+        <v>941.755</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.460000</v>
+        <v>-118.46</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>11736.151683</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.260042</v>
+        <v>3.2600419999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>948.053000</v>
+        <v>948.053</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.096000</v>
+        <v>-103.096</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>11746.689684</v>
+        <v>11746.689684000001</v>
       </c>
       <c r="V9" s="1">
         <v>3.262969</v>
       </c>
       <c r="W9" s="1">
-        <v>954.246000</v>
+        <v>954.24599999999998</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.500200</v>
+        <v>-89.500200000000007</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>11757.154278</v>
@@ -2355,88 +2771,88 @@
         <v>3.265876</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.300000</v>
+        <v>961.3</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.174000</v>
+        <v>-80.174000000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>11767.663512</v>
+        <v>11767.663511999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>3.268795</v>
+        <v>3.2687949999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.325000</v>
+        <v>966.32500000000005</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.819300</v>
+        <v>-79.819299999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>11777.867243</v>
+        <v>11777.867243000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>3.271630</v>
+        <v>3.27163</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.182000</v>
+        <v>974.18200000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.647400</v>
+        <v>-87.647400000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>11788.608572</v>
+        <v>11788.608571999999</v>
       </c>
       <c r="AP9" s="1">
         <v>3.274613</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.429000</v>
+        <v>983.42899999999997</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.663000</v>
+        <v>-102.663</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>11799.304831</v>
+        <v>11799.304830999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>3.277585</v>
+        <v>3.2775850000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.848000</v>
+        <v>994.84799999999996</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.269000</v>
+        <v>-124.26900000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>11810.425104</v>
       </c>
       <c r="AZ9" s="1">
-        <v>3.280674</v>
+        <v>3.2806739999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.450000</v>
+        <v>1004.45</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.096000</v>
+        <v>-143.096</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>11821.363377</v>
@@ -2445,13 +2861,13 @@
         <v>3.283712</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.660000</v>
+        <v>1049.6600000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.115000</v>
+        <v>-228.11500000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>11832.274868</v>
@@ -2460,135 +2876,135 @@
         <v>3.286743</v>
       </c>
       <c r="BK9" s="1">
-        <v>1128.890000</v>
+        <v>1128.8900000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-364.843000</v>
+        <v>-364.84300000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>11843.685829</v>
       </c>
       <c r="BO9" s="1">
-        <v>3.289913</v>
+        <v>3.2899129999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1260.270000</v>
+        <v>1260.27</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.729000</v>
+        <v>-576.72900000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>11854.125659</v>
+        <v>11854.125658999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>3.292813</v>
+        <v>3.2928130000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1408.290000</v>
+        <v>1408.29</v>
       </c>
       <c r="BV9" s="1">
-        <v>-802.963000</v>
+        <v>-802.96299999999997</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>11864.912648</v>
       </c>
       <c r="BY9" s="1">
-        <v>3.295809</v>
+        <v>3.2958090000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1571.390000</v>
+        <v>1571.39</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1039.690000</v>
+        <v>-1039.69</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>11877.134040</v>
+        <v>11877.134040000001</v>
       </c>
       <c r="CD9" s="1">
         <v>3.299204</v>
       </c>
       <c r="CE9" s="1">
-        <v>1985.300000</v>
+        <v>1985.3</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1590.600000</v>
+        <v>-1590.6</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>11705.976570</v>
+        <v>11705.976570000001</v>
       </c>
       <c r="B10" s="1">
-        <v>3.251660</v>
+        <v>3.2516600000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>903.558000</v>
+        <v>903.55799999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.578000</v>
+        <v>-195.578</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>11716.084542</v>
+        <v>11716.084542000001</v>
       </c>
       <c r="G10" s="1">
-        <v>3.254468</v>
+        <v>3.2544680000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>920.525000</v>
+        <v>920.52499999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.823000</v>
+        <v>-165.82300000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>11726.279807</v>
+        <v>11726.279807000001</v>
       </c>
       <c r="L10" s="1">
-        <v>3.257300</v>
+        <v>3.2572999999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>941.702000</v>
+        <v>941.702</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.440000</v>
+        <v>-118.44</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>11736.501890</v>
+        <v>11736.50189</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.260139</v>
+        <v>3.2601390000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>948.066000</v>
+        <v>948.06600000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.089000</v>
+        <v>-103.089</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>11747.330059</v>
@@ -2597,482 +3013,482 @@
         <v>3.263147</v>
       </c>
       <c r="W10" s="1">
-        <v>954.261000</v>
+        <v>954.26099999999997</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.497500</v>
+        <v>-89.497500000000002</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>11757.550119</v>
       </c>
       <c r="AA10" s="1">
-        <v>3.265986</v>
+        <v>3.2659859999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.421000</v>
+        <v>961.42100000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.013500</v>
+        <v>-80.013499999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>11768.051384</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.268903</v>
+        <v>3.2689029999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.281000</v>
+        <v>966.28099999999995</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.823200</v>
+        <v>-79.8232</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>11778.218380</v>
+        <v>11778.21838</v>
       </c>
       <c r="AK10" s="1">
-        <v>3.271727</v>
+        <v>3.2717269999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.232000</v>
+        <v>974.23199999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.636500</v>
+        <v>-87.636499999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>11788.989532</v>
       </c>
       <c r="AP10" s="1">
-        <v>3.274719</v>
+        <v>3.2747190000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.404000</v>
+        <v>983.404</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.678000</v>
+        <v>-102.678</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>11799.668366</v>
       </c>
       <c r="AU10" s="1">
-        <v>3.277686</v>
+        <v>3.2776860000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.854000</v>
+        <v>994.85400000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.294000</v>
+        <v>-124.294</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>11810.784703</v>
+        <v>11810.784702999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>3.280774</v>
+        <v>3.2807740000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.450000</v>
+        <v>1004.45</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.109000</v>
+        <v>-143.10900000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>11821.785004</v>
+        <v>11821.785003999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>3.283829</v>
+        <v>3.2838289999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.670000</v>
+        <v>1049.67</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.112000</v>
+        <v>-228.11199999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>11832.886930</v>
+        <v>11832.886930000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>3.286913</v>
+        <v>3.2869130000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1128.900000</v>
+        <v>1128.9000000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-364.858000</v>
+        <v>-364.858</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>11844.082660</v>
+        <v>11844.08266</v>
       </c>
       <c r="BO10" s="1">
-        <v>3.290023</v>
+        <v>3.2900230000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1260.240000</v>
+        <v>1260.24</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.723000</v>
+        <v>-576.72299999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>11854.553669</v>
+        <v>11854.553669000001</v>
       </c>
       <c r="BT10" s="1">
         <v>3.292932</v>
       </c>
       <c r="BU10" s="1">
-        <v>1408.410000</v>
+        <v>1408.41</v>
       </c>
       <c r="BV10" s="1">
-        <v>-803.022000</v>
+        <v>-803.02200000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>11865.368439</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.295936</v>
+        <v>3.2959360000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1571.390000</v>
+        <v>1571.39</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1039.740000</v>
+        <v>-1039.74</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>11877.674718</v>
       </c>
       <c r="CD10" s="1">
-        <v>3.299354</v>
+        <v>3.2993540000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1983.390000</v>
+        <v>1983.39</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1591.410000</v>
+        <v>-1591.41</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>11706.314841</v>
+        <v>11706.314840999999</v>
       </c>
       <c r="B11" s="1">
         <v>3.251754</v>
       </c>
       <c r="C11" s="1">
-        <v>903.638000</v>
+        <v>903.63800000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.693000</v>
+        <v>-195.69300000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>11716.430285</v>
       </c>
       <c r="G11" s="1">
-        <v>3.254564</v>
+        <v>3.2545639999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>919.878000</v>
+        <v>919.87800000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.322000</v>
+        <v>-165.322</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>11726.934526</v>
+        <v>11726.934525999999</v>
       </c>
       <c r="L11" s="1">
         <v>3.257482</v>
       </c>
       <c r="M11" s="1">
-        <v>941.738000</v>
+        <v>941.73800000000006</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.338000</v>
+        <v>-118.33799999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>11737.148145</v>
+        <v>11737.148144999999</v>
       </c>
       <c r="Q11" s="1">
         <v>3.260319</v>
       </c>
       <c r="R11" s="1">
-        <v>948.102000</v>
+        <v>948.10199999999998</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.119000</v>
+        <v>-103.119</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>11747.720867</v>
       </c>
       <c r="V11" s="1">
-        <v>3.263256</v>
+        <v>3.2632560000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>954.331000</v>
+        <v>954.33100000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.456500</v>
+        <v>-89.456500000000005</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>11757.899302</v>
       </c>
       <c r="AA11" s="1">
-        <v>3.266083</v>
+        <v>3.2660830000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.389000</v>
+        <v>961.38900000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.066500</v>
+        <v>-80.066500000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>11768.393129</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.268998</v>
+        <v>3.2689979999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.285000</v>
+        <v>966.28499999999997</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.775000</v>
+        <v>-79.775000000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>11778.565117</v>
       </c>
       <c r="AK11" s="1">
-        <v>3.271824</v>
+        <v>3.2718240000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.202000</v>
+        <v>974.202</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.666800</v>
+        <v>-87.666799999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>11789.351616</v>
       </c>
       <c r="AP11" s="1">
-        <v>3.274820</v>
+        <v>3.2748200000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.418000</v>
+        <v>983.41800000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.665000</v>
+        <v>-102.66500000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>11800.072111</v>
+        <v>11800.072110999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>3.277798</v>
+        <v>3.2777980000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.837000</v>
+        <v>994.83699999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.276000</v>
+        <v>-124.276</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>11811.210271</v>
       </c>
       <c r="AZ11" s="1">
-        <v>3.280892</v>
+        <v>3.2808920000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.450000</v>
+        <v>1004.45</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.091000</v>
+        <v>-143.09100000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>11822.086049</v>
       </c>
       <c r="BE11" s="1">
-        <v>3.283913</v>
+        <v>3.2839130000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.640000</v>
+        <v>1049.6400000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.144000</v>
+        <v>-228.14400000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>11833.263460</v>
+        <v>11833.26346</v>
       </c>
       <c r="BJ11" s="1">
-        <v>3.287018</v>
+        <v>3.2870180000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1128.900000</v>
+        <v>1128.9000000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-364.856000</v>
+        <v>-364.85599999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>11844.506212</v>
       </c>
       <c r="BO11" s="1">
-        <v>3.290141</v>
+        <v>3.2901410000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1260.290000</v>
+        <v>1260.29</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.729000</v>
+        <v>-576.72900000000004</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>11854.963365</v>
       </c>
       <c r="BT11" s="1">
-        <v>3.293045</v>
+        <v>3.2930450000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1408.310000</v>
+        <v>1408.31</v>
       </c>
       <c r="BV11" s="1">
-        <v>-803.030000</v>
+        <v>-803.03</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>11865.819303</v>
       </c>
       <c r="BY11" s="1">
-        <v>3.296061</v>
+        <v>3.2960609999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1571.420000</v>
+        <v>1571.42</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1039.910000</v>
+        <v>-1039.9100000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>11878.212375</v>
+        <v>11878.212374999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.299503</v>
+        <v>3.2995030000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1985.660000</v>
+        <v>1985.66</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1591.830000</v>
+        <v>-1591.83</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>11706.959641</v>
+        <v>11706.959640999999</v>
       </c>
       <c r="B12" s="1">
-        <v>3.251933</v>
+        <v>3.2519330000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>903.679000</v>
+        <v>903.67899999999997</v>
       </c>
       <c r="D12" s="1">
-        <v>-195.741000</v>
+        <v>-195.74100000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>11717.086461</v>
+        <v>11717.086461000001</v>
       </c>
       <c r="G12" s="1">
-        <v>3.254746</v>
+        <v>3.2547459999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>920.231000</v>
+        <v>920.23099999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.078000</v>
+        <v>-165.078</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>11727.313999</v>
@@ -3081,73 +3497,73 @@
         <v>3.257587</v>
       </c>
       <c r="M12" s="1">
-        <v>941.778000</v>
+        <v>941.77800000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.297000</v>
+        <v>-118.297</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>11737.549409</v>
+        <v>11737.549408999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>3.260430</v>
+        <v>3.2604299999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>948.069000</v>
+        <v>948.06899999999996</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.126000</v>
+        <v>-103.126</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>11748.063120</v>
+        <v>11748.063120000001</v>
       </c>
       <c r="V12" s="1">
-        <v>3.263351</v>
+        <v>3.2633510000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>954.318000</v>
+        <v>954.31799999999998</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.416400</v>
+        <v>-89.416399999999996</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>11758.248949</v>
+        <v>11758.248949000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.266180</v>
+        <v>3.2661799999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.367000</v>
+        <v>961.36699999999996</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.098400</v>
+        <v>-80.098399999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>11768.739831</v>
+        <v>11768.739831000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>3.269094</v>
+        <v>3.2690939999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.312000</v>
+        <v>966.31200000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.757100</v>
+        <v>-79.757099999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>11778.977257</v>
@@ -3156,300 +3572,300 @@
         <v>3.271938</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.227000</v>
+        <v>974.22699999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.653100</v>
+        <v>-87.653099999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>11789.762795</v>
+        <v>11789.762795000001</v>
       </c>
       <c r="AP12" s="1">
         <v>3.274934</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.410000</v>
+        <v>983.41</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.689000</v>
+        <v>-102.68899999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>11800.398975</v>
       </c>
       <c r="AU12" s="1">
-        <v>3.277889</v>
+        <v>3.2778890000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.811000</v>
+        <v>994.81100000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.294000</v>
+        <v>-124.294</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>11811.501422</v>
+        <v>11811.501421999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>3.280973</v>
+        <v>3.2809729999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.430000</v>
+        <v>1004.43</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.084000</v>
+        <v>-143.084</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>11822.446150</v>
+        <v>11822.44615</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.284013</v>
+        <v>3.2840129999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.680000</v>
+        <v>1049.68</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.124000</v>
+        <v>-228.124</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>11833.637377</v>
+        <v>11833.637376999999</v>
       </c>
       <c r="BJ12" s="1">
         <v>3.287121</v>
       </c>
       <c r="BK12" s="1">
-        <v>1128.870000</v>
+        <v>1128.8699999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-364.866000</v>
+        <v>-364.86599999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>11844.903508</v>
+        <v>11844.903507999999</v>
       </c>
       <c r="BO12" s="1">
         <v>3.290251</v>
       </c>
       <c r="BP12" s="1">
-        <v>1260.240000</v>
+        <v>1260.24</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.684000</v>
+        <v>-576.68399999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>11855.395413</v>
       </c>
       <c r="BT12" s="1">
-        <v>3.293165</v>
+        <v>3.2931650000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1408.430000</v>
+        <v>1408.43</v>
       </c>
       <c r="BV12" s="1">
-        <v>-803.047000</v>
+        <v>-803.04700000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>11866.276615</v>
+        <v>11866.276615000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>3.296188</v>
+        <v>3.2961879999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1571.400000</v>
+        <v>1571.4</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1039.700000</v>
+        <v>-1039.7</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>11878.753014</v>
       </c>
       <c r="CD12" s="1">
-        <v>3.299654</v>
+        <v>3.2996539999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1984.180000</v>
+        <v>1984.18</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1590.510000</v>
+        <v>-1590.51</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>11707.340104</v>
+        <v>11707.340104000001</v>
       </c>
       <c r="B13" s="1">
-        <v>3.252039</v>
+        <v>3.2520389999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>903.602000</v>
+        <v>903.60199999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.666000</v>
+        <v>-195.666</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>11717.462427</v>
       </c>
       <c r="G13" s="1">
-        <v>3.254851</v>
+        <v>3.2548509999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>920.437000</v>
+        <v>920.43700000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.479000</v>
+        <v>-165.47900000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>11727.659214</v>
+        <v>11727.659213999999</v>
       </c>
       <c r="L13" s="1">
-        <v>3.257683</v>
+        <v>3.2576830000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>941.792000</v>
+        <v>941.79200000000003</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.454000</v>
+        <v>-118.45399999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>11737.895617</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.260527</v>
+        <v>3.2605270000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>948.070000</v>
+        <v>948.07</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.147000</v>
+        <v>-103.14700000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>11748.410339</v>
       </c>
       <c r="V13" s="1">
-        <v>3.263447</v>
+        <v>3.2634470000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>954.315000</v>
+        <v>954.31500000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.509400</v>
+        <v>-89.509399999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>11758.661124</v>
       </c>
       <c r="AA13" s="1">
-        <v>3.266295</v>
+        <v>3.2662949999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.496000</v>
+        <v>961.49599999999998</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.080700</v>
+        <v>-80.080699999999993</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>11769.156470</v>
+        <v>11769.15647</v>
       </c>
       <c r="AF13" s="1">
-        <v>3.269210</v>
+        <v>3.2692100000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.258000</v>
+        <v>966.25800000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.734200</v>
+        <v>-79.734200000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>11779.278361</v>
+        <v>11779.278361000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>3.272022</v>
+        <v>3.2720220000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.211000</v>
+        <v>974.21100000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.640700</v>
+        <v>-87.640699999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>11790.070284</v>
+        <v>11790.070283999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>3.275020</v>
+        <v>3.27502</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.402000</v>
+        <v>983.40200000000004</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.674000</v>
+        <v>-102.67400000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>11800.765059</v>
+        <v>11800.765058999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>3.277990</v>
+        <v>3.27799</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.857000</v>
+        <v>994.85699999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.299000</v>
+        <v>-124.29900000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>11811.860558</v>
@@ -3458,73 +3874,73 @@
         <v>3.281072</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.440000</v>
+        <v>1004.44</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.067000</v>
+        <v>-143.06700000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>11822.806273</v>
       </c>
       <c r="BE13" s="1">
-        <v>3.284113</v>
+        <v>3.2841130000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.650000</v>
+        <v>1049.6500000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.115000</v>
+        <v>-228.11500000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>11834.387824</v>
+        <v>11834.387823999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>3.287330</v>
+        <v>3.2873299999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1128.910000</v>
+        <v>1128.9100000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-364.866000</v>
+        <v>-364.86599999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>11845.320642</v>
+        <v>11845.320642000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>3.290367</v>
+        <v>3.2903669999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1260.260000</v>
+        <v>1260.26</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.734000</v>
+        <v>-576.73400000000004</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>11855.821477</v>
       </c>
       <c r="BT13" s="1">
-        <v>3.293284</v>
+        <v>3.2932839999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1408.390000</v>
+        <v>1408.39</v>
       </c>
       <c r="BV13" s="1">
-        <v>-802.949000</v>
+        <v>-802.94899999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>11866.725493</v>
@@ -3533,13 +3949,13 @@
         <v>3.296313</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1571.320000</v>
+        <v>1571.32</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1039.710000</v>
+        <v>-1039.71</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>11879.294613</v>
@@ -3548,120 +3964,120 @@
         <v>3.299804</v>
       </c>
       <c r="CE13" s="1">
-        <v>1984.410000</v>
+        <v>1984.41</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1592.260000</v>
+        <v>-1592.26</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>11707.684296</v>
+        <v>11707.684295999999</v>
       </c>
       <c r="B14" s="1">
         <v>3.252135</v>
       </c>
       <c r="C14" s="1">
-        <v>903.754000</v>
+        <v>903.75400000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>-195.656000</v>
+        <v>-195.65600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>11717.810161</v>
+        <v>11717.810160999999</v>
       </c>
       <c r="G14" s="1">
         <v>3.254947</v>
       </c>
       <c r="H14" s="1">
-        <v>919.924000</v>
+        <v>919.92399999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.438000</v>
+        <v>-165.43799999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>11728.006104</v>
       </c>
       <c r="L14" s="1">
-        <v>3.257779</v>
+        <v>3.2577790000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>941.878000</v>
+        <v>941.87800000000004</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.362000</v>
+        <v>-118.36199999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>11738.582576</v>
+        <v>11738.582576000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>3.260717</v>
+        <v>3.2607170000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>948.027000</v>
+        <v>948.02700000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.073000</v>
+        <v>-103.07299999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>11748.830444</v>
+        <v>11748.830443999999</v>
       </c>
       <c r="V14" s="1">
-        <v>3.263564</v>
+        <v>3.2635640000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>954.297000</v>
+        <v>954.29700000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.456400</v>
+        <v>-89.456400000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>11758.945860</v>
+        <v>11758.94586</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.266374</v>
+        <v>3.2663739999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.419000</v>
+        <v>961.41899999999998</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.081000</v>
+        <v>-80.081000000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>11769.426790</v>
+        <v>11769.42679</v>
       </c>
       <c r="AF14" s="1">
         <v>3.269285</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.279000</v>
+        <v>966.279</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.800300</v>
+        <v>-79.800299999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>11779.628037</v>
@@ -3670,103 +4086,103 @@
         <v>3.272119</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.210000</v>
+        <v>974.21</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.655300</v>
+        <v>-87.655299999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>11790.429419</v>
       </c>
       <c r="AP14" s="1">
-        <v>3.275119</v>
+        <v>3.2751190000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.418000</v>
+        <v>983.41800000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.683000</v>
+        <v>-102.68300000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>11801.127100</v>
+        <v>11801.1271</v>
       </c>
       <c r="AU14" s="1">
-        <v>3.278091</v>
+        <v>3.2780909999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.833000</v>
+        <v>994.83299999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.282000</v>
+        <v>-124.282</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>11812.219135</v>
+        <v>11812.219134999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>3.281172</v>
+        <v>3.2811720000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.440000</v>
+        <v>1004.44</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.075000</v>
+        <v>-143.07499999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>11823.530895</v>
       </c>
       <c r="BE14" s="1">
-        <v>3.284314</v>
+        <v>3.2843140000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.660000</v>
+        <v>1049.6600000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.139000</v>
+        <v>-228.13900000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>11834.765280</v>
+        <v>11834.76528</v>
       </c>
       <c r="BJ14" s="1">
-        <v>3.287435</v>
+        <v>3.2874349999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1128.890000</v>
+        <v>1128.8900000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-364.830000</v>
+        <v>-364.83</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>11845.720944</v>
+        <v>11845.720944000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>3.290478</v>
+        <v>3.2904779999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1260.230000</v>
+        <v>1260.23</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.761000</v>
+        <v>-576.76099999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>11856.236131</v>
@@ -3775,75 +4191,75 @@
         <v>3.293399</v>
       </c>
       <c r="BU14" s="1">
-        <v>1408.440000</v>
+        <v>1408.44</v>
       </c>
       <c r="BV14" s="1">
-        <v>-802.993000</v>
+        <v>-802.99300000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>11867.178874</v>
+        <v>11867.178873999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>3.296439</v>
+        <v>3.2964389999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1571.310000</v>
+        <v>1571.31</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1039.840000</v>
+        <v>-1039.8399999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>11880.142772</v>
+        <v>11880.142771999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>3.300040</v>
+        <v>3.3000400000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1984.010000</v>
+        <v>1984.01</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1590.690000</v>
+        <v>-1590.69</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>11708.024055</v>
       </c>
       <c r="B15" s="1">
-        <v>3.252229</v>
+        <v>3.2522289999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>903.589000</v>
+        <v>903.58900000000006</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.699000</v>
+        <v>-195.69900000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>11718.153850</v>
+        <v>11718.153850000001</v>
       </c>
       <c r="G15" s="1">
-        <v>3.255043</v>
+        <v>3.2550430000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>920.200000</v>
+        <v>920.2</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.550000</v>
+        <v>-165.55</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>11728.422885</v>
@@ -3852,315 +4268,315 @@
         <v>3.257895</v>
       </c>
       <c r="M15" s="1">
-        <v>941.644000</v>
+        <v>941.64400000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.274000</v>
+        <v>-118.274</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>11738.941184</v>
+        <v>11738.941183999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>3.260817</v>
+        <v>3.2608169999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>948.070000</v>
+        <v>948.07</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.102000</v>
+        <v>-103.102</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>11749.096273</v>
+        <v>11749.096272999999</v>
       </c>
       <c r="V15" s="1">
-        <v>3.263638</v>
+        <v>3.2636379999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>954.337000</v>
+        <v>954.33699999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.480300</v>
+        <v>-89.4803</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>11759.295509</v>
       </c>
       <c r="AA15" s="1">
-        <v>3.266471</v>
+        <v>3.2664710000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.420000</v>
+        <v>961.42</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.207400</v>
+        <v>-80.207400000000007</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>11769.771014</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.269381</v>
+        <v>3.2693810000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.272000</v>
+        <v>966.27200000000005</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.735900</v>
+        <v>-79.735900000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>11779.976200</v>
+        <v>11779.976199999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>3.272216</v>
+        <v>3.2722159999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.176000</v>
+        <v>974.17600000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.661800</v>
+        <v>-87.661799999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>11790.790474</v>
+        <v>11790.790473999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>3.275220</v>
+        <v>3.27522</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.399000</v>
+        <v>983.399</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.690000</v>
+        <v>-102.69</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>11801.864155</v>
+        <v>11801.864154999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>3.278296</v>
+        <v>3.2782960000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.830000</v>
+        <v>994.83</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.291000</v>
+        <v>-124.291</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>11812.941804</v>
       </c>
       <c r="AZ15" s="1">
-        <v>3.281373</v>
+        <v>3.2813729999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.450000</v>
+        <v>1004.45</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.087000</v>
+        <v>-143.08699999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>11823.914360</v>
+        <v>11823.914360000001</v>
       </c>
       <c r="BE15" s="1">
         <v>3.284421</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.680000</v>
+        <v>1049.68</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.123000</v>
+        <v>-228.12299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>11835.138767</v>
       </c>
       <c r="BJ15" s="1">
-        <v>3.287539</v>
+        <v>3.2875390000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1128.880000</v>
+        <v>1128.8800000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-364.855000</v>
+        <v>-364.85500000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>11846.142512</v>
       </c>
       <c r="BO15" s="1">
-        <v>3.290595</v>
+        <v>3.2905950000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1260.270000</v>
+        <v>1260.27</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.743000</v>
+        <v>-576.74300000000005</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>11856.965218</v>
+        <v>11856.965217999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>3.293601</v>
+        <v>3.2936009999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1408.410000</v>
+        <v>1408.41</v>
       </c>
       <c r="BV15" s="1">
-        <v>-803.049000</v>
+        <v>-803.04899999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>11867.934279</v>
+        <v>11867.934278999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>3.296648</v>
+        <v>3.2966479999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1571.380000</v>
+        <v>1571.38</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1039.930000</v>
+        <v>-1039.93</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>11880.373909</v>
       </c>
       <c r="CD15" s="1">
-        <v>3.300104</v>
+        <v>3.3001040000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1983.680000</v>
+        <v>1983.68</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1590.530000</v>
+        <v>-1590.53</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>11708.435238</v>
       </c>
       <c r="B16" s="1">
-        <v>3.252343</v>
+        <v>3.2523430000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>903.627000</v>
+        <v>903.62699999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-195.628000</v>
+        <v>-195.62799999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>11718.580907</v>
       </c>
       <c r="G16" s="1">
-        <v>3.255161</v>
+        <v>3.2551610000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>920.110000</v>
+        <v>920.11</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.335000</v>
+        <v>-165.33500000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>11728.718637</v>
       </c>
       <c r="L16" s="1">
-        <v>3.257977</v>
+        <v>3.2579769999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>941.792000</v>
+        <v>941.79200000000003</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.363000</v>
+        <v>-118.363</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>11739.293342</v>
+        <v>11739.293342000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>3.260915</v>
+        <v>3.2609149999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>948.097000</v>
+        <v>948.09699999999998</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.106000</v>
+        <v>-103.10599999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>11749.440534</v>
+        <v>11749.440533999999</v>
       </c>
       <c r="V16" s="1">
-        <v>3.263733</v>
+        <v>3.2637330000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>954.339000</v>
+        <v>954.33900000000006</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.500800</v>
+        <v>-89.500799999999998</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>11759.643699</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.266568</v>
+        <v>3.2665679999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.349000</v>
+        <v>961.34900000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.066700</v>
+        <v>-80.066699999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>11770.115237</v>
@@ -4169,195 +4585,195 @@
         <v>3.269476</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.283000</v>
+        <v>966.28300000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.770900</v>
+        <v>-79.770899999999997</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>11780.673575</v>
+        <v>11780.673575000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>3.272409</v>
+        <v>3.2724090000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.195000</v>
+        <v>974.19500000000005</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.651000</v>
+        <v>-87.650999999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>11791.512186</v>
       </c>
       <c r="AP16" s="1">
-        <v>3.275420</v>
+        <v>3.27542</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.439000</v>
+        <v>983.43899999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.678000</v>
+        <v>-102.678</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>11802.242603</v>
+        <v>11802.242603000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>3.278401</v>
+        <v>3.2784010000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.838000</v>
+        <v>994.83799999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.298000</v>
+        <v>-124.298</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>11813.315789</v>
       </c>
       <c r="AZ16" s="1">
-        <v>3.281477</v>
+        <v>3.2814770000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.460000</v>
+        <v>1004.46</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.087000</v>
+        <v>-143.08699999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>11824.278399</v>
+        <v>11824.278399000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>3.284522</v>
+        <v>3.2845219999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.680000</v>
+        <v>1049.68</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.159000</v>
+        <v>-228.15899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>11835.815311</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.287726</v>
+        <v>3.2877260000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1128.900000</v>
+        <v>1128.9000000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-364.844000</v>
+        <v>-364.84399999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>11846.850336</v>
       </c>
       <c r="BO16" s="1">
-        <v>3.290792</v>
+        <v>3.2907920000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1260.240000</v>
+        <v>1260.24</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.724000</v>
+        <v>-576.72400000000005</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>11857.093682</v>
+        <v>11857.093682000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>3.293637</v>
+        <v>3.2936369999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1408.530000</v>
+        <v>1408.53</v>
       </c>
       <c r="BV16" s="1">
-        <v>-803.032000</v>
+        <v>-803.03200000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>11868.670835</v>
+        <v>11868.670835000001</v>
       </c>
       <c r="BY16" s="1">
         <v>3.296853</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1571.440000</v>
+        <v>1571.44</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1039.760000</v>
+        <v>-1039.76</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>11880.892735</v>
+        <v>11880.892734999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>3.300248</v>
+        <v>3.3002479999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1984.030000</v>
+        <v>1984.03</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1592.120000</v>
+        <v>-1592.12</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>11708.727414</v>
+        <v>11708.727414000001</v>
       </c>
       <c r="B17" s="1">
         <v>3.252424</v>
       </c>
       <c r="C17" s="1">
-        <v>903.579000</v>
+        <v>903.57899999999995</v>
       </c>
       <c r="D17" s="1">
-        <v>-195.706000</v>
+        <v>-195.70599999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>11718.988122</v>
+        <v>11718.988122000001</v>
       </c>
       <c r="G17" s="1">
         <v>3.255274</v>
       </c>
       <c r="H17" s="1">
-        <v>920.284000</v>
+        <v>920.28399999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.660000</v>
+        <v>-165.66</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>11729.062891</v>
@@ -4366,58 +4782,58 @@
         <v>3.258073</v>
       </c>
       <c r="M17" s="1">
-        <v>941.889000</v>
+        <v>941.88900000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.474000</v>
+        <v>-118.474</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>11739.638557</v>
       </c>
       <c r="Q17" s="1">
-        <v>3.261011</v>
+        <v>3.2610109999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>948.092000</v>
+        <v>948.09199999999998</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.146000</v>
+        <v>-103.146</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>11749.786240</v>
+        <v>11749.786239999999</v>
       </c>
       <c r="V17" s="1">
-        <v>3.263830</v>
+        <v>3.26383</v>
       </c>
       <c r="W17" s="1">
-        <v>954.261000</v>
+        <v>954.26099999999997</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.409000</v>
+        <v>-89.409000000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>11760.340579</v>
       </c>
       <c r="AA17" s="1">
-        <v>3.266761</v>
+        <v>3.2667609999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.381000</v>
+        <v>961.38099999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.116600</v>
+        <v>-80.116600000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>11770.798724</v>
@@ -4426,73 +4842,73 @@
         <v>3.269666</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.260000</v>
+        <v>966.26</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.800800</v>
+        <v>-79.800799999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>11781.021767</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.272506</v>
+        <v>3.2725059999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.204000</v>
+        <v>974.20399999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.644500</v>
+        <v>-87.644499999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>11791.873736</v>
       </c>
       <c r="AP17" s="1">
-        <v>3.275520</v>
+        <v>3.2755200000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.413000</v>
+        <v>983.41300000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.693000</v>
+        <v>-102.693</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>11802.610138</v>
       </c>
       <c r="AU17" s="1">
-        <v>3.278503</v>
+        <v>3.2785030000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.826000</v>
+        <v>994.82600000000002</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.299000</v>
+        <v>-124.29900000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>11814.004235</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3.281668</v>
+        <v>3.2816679999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.450000</v>
+        <v>1004.45</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.085000</v>
+        <v>-143.08500000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>11824.945021</v>
@@ -4501,165 +4917,165 @@
         <v>3.284707</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.670000</v>
+        <v>1049.67</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.139000</v>
+        <v>-228.13900000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>11836.265213</v>
+        <v>11836.265213000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>3.287851</v>
+        <v>3.2878509999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1128.920000</v>
+        <v>1128.92</v>
       </c>
       <c r="BL17" s="1">
-        <v>-364.890000</v>
+        <v>-364.89</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>11846.959964</v>
       </c>
       <c r="BO17" s="1">
-        <v>3.290822</v>
+        <v>3.2908219999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1260.250000</v>
+        <v>1260.25</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.694000</v>
+        <v>-576.69399999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>11857.505362</v>
       </c>
       <c r="BT17" s="1">
-        <v>3.293751</v>
+        <v>3.2937509999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1408.480000</v>
+        <v>1408.48</v>
       </c>
       <c r="BV17" s="1">
-        <v>-802.998000</v>
+        <v>-802.99800000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>11868.946611</v>
+        <v>11868.946610999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>3.296930</v>
+        <v>3.2969300000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1571.450000</v>
+        <v>1571.45</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1039.800000</v>
+        <v>-1039.8</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>11881.413026</v>
       </c>
       <c r="CD17" s="1">
-        <v>3.300393</v>
+        <v>3.3003930000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1983.490000</v>
+        <v>1983.49</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1592.100000</v>
+        <v>-1592.1</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>11709.066181</v>
       </c>
       <c r="B18" s="1">
-        <v>3.252518</v>
+        <v>3.2525179999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>903.647000</v>
+        <v>903.64700000000005</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.673000</v>
+        <v>-195.673</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>11719.437529</v>
+        <v>11719.437529000001</v>
       </c>
       <c r="G18" s="1">
-        <v>3.255399</v>
+        <v>3.2553990000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>919.878000</v>
+        <v>919.87800000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.548000</v>
+        <v>-165.548</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>11729.408076</v>
       </c>
       <c r="L18" s="1">
-        <v>3.258169</v>
+        <v>3.2581690000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>941.916000</v>
+        <v>941.91600000000005</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.213000</v>
+        <v>-118.21299999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>11740.334445</v>
       </c>
       <c r="Q18" s="1">
-        <v>3.261204</v>
+        <v>3.2612040000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>948.055000</v>
+        <v>948.05499999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.169000</v>
+        <v>-103.169</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>11750.471681</v>
+        <v>11750.471681000001</v>
       </c>
       <c r="V18" s="1">
-        <v>3.264020</v>
+        <v>3.2640199999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>954.264000</v>
+        <v>954.26400000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.526600</v>
+        <v>-89.526600000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>11760.689794</v>
@@ -4668,240 +5084,240 @@
         <v>3.266858</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.419000</v>
+        <v>961.41899999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.145200</v>
+        <v>-80.145200000000003</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>11771.144932</v>
+        <v>11771.144931999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.269762</v>
+        <v>3.2697620000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.266000</v>
+        <v>966.26599999999996</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.787000</v>
+        <v>-79.787000000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>11781.370983</v>
+        <v>11781.370983000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>3.272603</v>
+        <v>3.2726030000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.191000</v>
+        <v>974.19100000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.635400</v>
+        <v>-87.635400000000004</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>11792.232856</v>
+        <v>11792.232856000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>3.275620</v>
+        <v>3.27562</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.410000</v>
+        <v>983.41</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.705000</v>
+        <v>-102.705</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>11803.269360</v>
+        <v>11803.26936</v>
       </c>
       <c r="AU18" s="1">
         <v>3.278686</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.839000</v>
+        <v>994.83900000000006</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.266000</v>
+        <v>-124.26600000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>11814.414426</v>
+        <v>11814.414425999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>3.281782</v>
+        <v>3.2817820000000002</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.440000</v>
+        <v>1004.44</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.098000</v>
+        <v>-143.09800000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>11825.395885</v>
       </c>
       <c r="BE18" s="1">
-        <v>3.284832</v>
+        <v>3.2848320000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.660000</v>
+        <v>1049.6600000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.140000</v>
+        <v>-228.14</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>11836.641181</v>
+        <v>11836.641181000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>3.287956</v>
+        <v>3.2879559999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1128.870000</v>
+        <v>1128.8699999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-364.876000</v>
+        <v>-364.87599999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>11847.382511</v>
       </c>
       <c r="BO18" s="1">
-        <v>3.290940</v>
+        <v>3.29094</v>
       </c>
       <c r="BP18" s="1">
-        <v>1260.270000</v>
+        <v>1260.27</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.734000</v>
+        <v>-576.73400000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>11857.937377</v>
       </c>
       <c r="BT18" s="1">
-        <v>3.293871</v>
+        <v>3.2938710000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1408.520000</v>
+        <v>1408.52</v>
       </c>
       <c r="BV18" s="1">
-        <v>-803.109000</v>
+        <v>-803.10900000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>11869.593858</v>
       </c>
       <c r="BY18" s="1">
-        <v>3.297109</v>
+        <v>3.2971089999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1571.430000</v>
+        <v>1571.43</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1039.640000</v>
+        <v>-1039.6400000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>11881.960609</v>
       </c>
       <c r="CD18" s="1">
-        <v>3.300545</v>
+        <v>3.3005450000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1983.660000</v>
+        <v>1983.66</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1590.860000</v>
+        <v>-1590.86</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>11709.409877</v>
       </c>
       <c r="B19" s="1">
-        <v>3.252614</v>
+        <v>3.2526139999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>903.722000</v>
+        <v>903.72199999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.572000</v>
+        <v>-195.572</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>11719.881912</v>
+        <v>11719.881912000001</v>
       </c>
       <c r="G19" s="1">
-        <v>3.255523</v>
+        <v>3.2555230000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>920.141000</v>
+        <v>920.14099999999996</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.714000</v>
+        <v>-165.714</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>11730.091066</v>
+        <v>11730.091066000001</v>
       </c>
       <c r="L19" s="1">
         <v>3.258359</v>
       </c>
       <c r="M19" s="1">
-        <v>941.762000</v>
+        <v>941.76199999999994</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.422000</v>
+        <v>-118.422</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>11740.685116</v>
+        <v>11740.685116000001</v>
       </c>
       <c r="Q19" s="1">
         <v>3.261301</v>
       </c>
       <c r="R19" s="1">
-        <v>948.047000</v>
+        <v>948.04700000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.089000</v>
+        <v>-103.089</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>11750.816926</v>
@@ -4910,255 +5326,255 @@
         <v>3.264116</v>
       </c>
       <c r="W19" s="1">
-        <v>954.323000</v>
+        <v>954.32299999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.423000</v>
+        <v>-89.423000000000002</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>11761.038945</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.266955</v>
+        <v>3.2669549999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.469000</v>
+        <v>961.46900000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.136100</v>
+        <v>-80.136099999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>11771.489192</v>
+        <v>11771.489191999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.269858</v>
+        <v>3.2698580000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.257000</v>
+        <v>966.25699999999995</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.789100</v>
+        <v>-79.789100000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>11782.023714</v>
+        <v>11782.023714000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>3.272784</v>
+        <v>3.2727840000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.169000</v>
+        <v>974.16899999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.644300</v>
+        <v>-87.644300000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>11792.895991</v>
+        <v>11792.895990999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>3.275804</v>
+        <v>3.2758039999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.418000</v>
+        <v>983.41800000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.689000</v>
+        <v>-102.68899999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>11803.738537</v>
+        <v>11803.738536999999</v>
       </c>
       <c r="AU19" s="1">
         <v>3.278816</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.817000</v>
+        <v>994.81700000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.296000</v>
+        <v>-124.29600000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>11814.771547</v>
       </c>
       <c r="AZ19" s="1">
-        <v>3.281881</v>
+        <v>3.2818809999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.470000</v>
+        <v>1004.47</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.076000</v>
+        <v>-143.07599999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>11825.757463</v>
       </c>
       <c r="BE19" s="1">
-        <v>3.284933</v>
+        <v>3.2849330000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.670000</v>
+        <v>1049.67</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.125000</v>
+        <v>-228.125</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>11837.017118</v>
       </c>
       <c r="BJ19" s="1">
-        <v>3.288060</v>
+        <v>3.2880600000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1128.910000</v>
+        <v>1128.9100000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-364.844000</v>
+        <v>-364.84399999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>11847.780800</v>
+        <v>11847.7808</v>
       </c>
       <c r="BO19" s="1">
-        <v>3.291050</v>
+        <v>3.2910499999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1260.280000</v>
+        <v>1260.28</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.694000</v>
+        <v>-576.69399999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>11858.366912</v>
       </c>
       <c r="BT19" s="1">
-        <v>3.293991</v>
+        <v>3.2939910000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1408.610000</v>
+        <v>1408.61</v>
       </c>
       <c r="BV19" s="1">
-        <v>-802.953000</v>
+        <v>-802.95299999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>11869.806145</v>
       </c>
       <c r="BY19" s="1">
-        <v>3.297168</v>
+        <v>3.2971680000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1571.290000</v>
+        <v>1571.29</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1039.770000</v>
+        <v>-1039.77</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>11882.489872</v>
       </c>
       <c r="CD19" s="1">
-        <v>3.300692</v>
+        <v>3.3006920000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>1983.880000</v>
+        <v>1983.88</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1592.100000</v>
+        <v>-1592.1</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>11710.092869</v>
       </c>
       <c r="B20" s="1">
-        <v>3.252804</v>
+        <v>3.2528039999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>903.515000</v>
+        <v>903.51499999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.789000</v>
+        <v>-195.78899999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>11720.249447</v>
       </c>
       <c r="G20" s="1">
-        <v>3.255625</v>
+        <v>3.2556250000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>920.312000</v>
+        <v>920.31200000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.533000</v>
+        <v>-165.53299999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>11730.446201</v>
+        <v>11730.446201000001</v>
       </c>
       <c r="L20" s="1">
-        <v>3.258457</v>
+        <v>3.2584569999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>941.841000</v>
+        <v>941.84100000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.413000</v>
+        <v>-118.413</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>11741.034299</v>
+        <v>11741.034299000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>3.261398</v>
+        <v>3.2613979999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>948.061000</v>
+        <v>948.06100000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.090000</v>
+        <v>-103.09</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>11751.159135</v>
@@ -5167,58 +5583,58 @@
         <v>3.264211</v>
       </c>
       <c r="W20" s="1">
-        <v>954.306000</v>
+        <v>954.30600000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.482700</v>
+        <v>-89.482699999999994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>11761.685233</v>
       </c>
       <c r="AA20" s="1">
-        <v>3.267135</v>
+        <v>3.2671350000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.396000</v>
+        <v>961.39599999999996</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.198200</v>
+        <v>-80.1982</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>11772.142386</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.270040</v>
+        <v>3.2700399999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.284000</v>
+        <v>966.28399999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.814000</v>
+        <v>-79.813999999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>11782.418998</v>
+        <v>11782.418997999999</v>
       </c>
       <c r="AK20" s="1">
         <v>3.272894</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.176000</v>
+        <v>974.17600000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.658800</v>
+        <v>-87.658799999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>11793.342391</v>
@@ -5227,28 +5643,28 @@
         <v>3.275928</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.432000</v>
+        <v>983.43200000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.669000</v>
+        <v>-102.669</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>11804.102136</v>
       </c>
       <c r="AU20" s="1">
-        <v>3.278917</v>
+        <v>3.2789169999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.824000</v>
+        <v>994.82399999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.310000</v>
+        <v>-124.31</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>11815.131807</v>
@@ -5257,165 +5673,165 @@
         <v>3.281981</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.460000</v>
+        <v>1004.46</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.104000</v>
+        <v>-143.10400000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>11826.118027</v>
       </c>
       <c r="BE20" s="1">
-        <v>3.285033</v>
+        <v>3.2850329999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.680000</v>
+        <v>1049.68</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.124000</v>
+        <v>-228.124</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>11837.436764</v>
       </c>
       <c r="BJ20" s="1">
-        <v>3.288177</v>
+        <v>3.2881770000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1128.890000</v>
+        <v>1128.8900000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-364.848000</v>
+        <v>-364.84800000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>11848.208350</v>
+        <v>11848.208350000001</v>
       </c>
       <c r="BO20" s="1">
         <v>3.291169</v>
       </c>
       <c r="BP20" s="1">
-        <v>1260.230000</v>
+        <v>1260.23</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.695000</v>
+        <v>-576.69500000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>11858.779099</v>
+        <v>11858.779098999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>3.294105</v>
+        <v>3.2941050000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1408.590000</v>
+        <v>1408.59</v>
       </c>
       <c r="BV20" s="1">
-        <v>-803.014000</v>
+        <v>-803.01400000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>11870.231713</v>
+        <v>11870.231712999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>3.297287</v>
+        <v>3.2972869999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1571.340000</v>
+        <v>1571.34</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1039.710000</v>
+        <v>-1039.71</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>11883.007168</v>
       </c>
       <c r="CD20" s="1">
-        <v>3.300835</v>
+        <v>3.3008350000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1985.280000</v>
+        <v>1985.28</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1590.790000</v>
+        <v>-1590.79</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>11710.436100</v>
+        <v>11710.436100000001</v>
       </c>
       <c r="B21" s="1">
-        <v>3.252899</v>
+        <v>3.2528990000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>903.671000</v>
+        <v>903.67100000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.750000</v>
+        <v>-195.75</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>11720.596152</v>
       </c>
       <c r="G21" s="1">
-        <v>3.255721</v>
+        <v>3.2557209999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>920.060000</v>
+        <v>920.06</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.484000</v>
+        <v>-165.48400000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>11730.793931</v>
       </c>
       <c r="L21" s="1">
-        <v>3.258554</v>
+        <v>3.2585540000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>941.466000</v>
+        <v>941.46600000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.408000</v>
+        <v>-118.408</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>11741.680620</v>
+        <v>11741.680619999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>3.261578</v>
+        <v>3.2615780000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>948.112000</v>
+        <v>948.11199999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.125000</v>
+        <v>-103.125</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>11751.809917</v>
@@ -5424,148 +5840,148 @@
         <v>3.264392</v>
       </c>
       <c r="W21" s="1">
-        <v>954.286000</v>
+        <v>954.28599999999994</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.469600</v>
+        <v>-89.4696</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>11762.080049</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.267244</v>
+        <v>3.2672439999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.410000</v>
+        <v>961.41</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.042300</v>
+        <v>-80.042299999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>11772.517362</v>
+        <v>11772.517362000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>3.270144</v>
+        <v>3.2701440000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.280000</v>
+        <v>966.28</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.794100</v>
+        <v>-79.7941</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>11782.765204</v>
+        <v>11782.765203999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>3.272990</v>
+        <v>3.2729900000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.192000</v>
+        <v>974.19200000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.660700</v>
+        <v>-87.660700000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>11793.703019</v>
       </c>
       <c r="AP21" s="1">
-        <v>3.276029</v>
+        <v>3.2760289999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.436000</v>
+        <v>983.43600000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.664000</v>
+        <v>-102.664</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>11804.465937</v>
+        <v>11804.465937000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>3.279018</v>
+        <v>3.2790180000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.820000</v>
+        <v>994.82</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.289000</v>
+        <v>-124.289</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>11815.546793</v>
       </c>
       <c r="AZ21" s="1">
-        <v>3.282096</v>
+        <v>3.2820960000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.460000</v>
+        <v>1004.46</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.075000</v>
+        <v>-143.07499999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>11826.538650</v>
+        <v>11826.53865</v>
       </c>
       <c r="BE21" s="1">
-        <v>3.285150</v>
+        <v>3.2851499999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.690000</v>
+        <v>1049.69</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.139000</v>
+        <v>-228.13900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>11837.785454</v>
+        <v>11837.785454000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>3.288274</v>
+        <v>3.2882739999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1128.910000</v>
+        <v>1128.9100000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-364.862000</v>
+        <v>-364.86200000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>11848.601678</v>
+        <v>11848.601678000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>3.291278</v>
+        <v>3.2912780000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1260.260000</v>
+        <v>1260.26</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.724000</v>
+        <v>-576.72400000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>11859.211103</v>
@@ -5574,105 +5990,105 @@
         <v>3.294225</v>
       </c>
       <c r="BU21" s="1">
-        <v>1408.610000</v>
+        <v>1408.61</v>
       </c>
       <c r="BV21" s="1">
-        <v>-803.014000</v>
+        <v>-803.01400000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>11870.655824</v>
+        <v>11870.655823999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>3.297404</v>
+        <v>3.2974039999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1571.350000</v>
+        <v>1571.35</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1039.810000</v>
+        <v>-1039.81</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>11883.549323</v>
+        <v>11883.549322999999</v>
       </c>
       <c r="CD21" s="1">
         <v>3.300986</v>
       </c>
       <c r="CE21" s="1">
-        <v>1983.120000</v>
+        <v>1983.12</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1591.180000</v>
+        <v>-1591.18</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>11710.777379</v>
+        <v>11710.777378999999</v>
       </c>
       <c r="B22" s="1">
-        <v>3.252994</v>
+        <v>3.2529940000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>903.715000</v>
+        <v>903.71500000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-195.708000</v>
+        <v>-195.708</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>11721.248897</v>
+        <v>11721.248896999999</v>
       </c>
       <c r="G22" s="1">
-        <v>3.255902</v>
+        <v>3.2559019999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>920.358000</v>
+        <v>920.35799999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.469000</v>
+        <v>-165.46899999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>11731.436216</v>
       </c>
       <c r="L22" s="1">
-        <v>3.258732</v>
+        <v>3.2587320000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>941.706000</v>
+        <v>941.70600000000002</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.530000</v>
+        <v>-118.53</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>11742.080890</v>
+        <v>11742.080889999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>3.261689</v>
+        <v>3.2616890000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>948.098000</v>
+        <v>948.09799999999996</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.141000</v>
+        <v>-103.14100000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>11752.188333</v>
@@ -5681,225 +6097,225 @@
         <v>3.264497</v>
       </c>
       <c r="W22" s="1">
-        <v>954.285000</v>
+        <v>954.28499999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.450400</v>
+        <v>-89.450400000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>11762.430719</v>
       </c>
       <c r="AA22" s="1">
-        <v>3.267342</v>
+        <v>3.2673420000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.387000</v>
+        <v>961.38699999999994</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.971500</v>
+        <v>-79.971500000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>11772.861586</v>
+        <v>11772.861586000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.270239</v>
+        <v>3.2702390000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.261000</v>
+        <v>966.26099999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.798700</v>
+        <v>-79.798699999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>11783.112404</v>
       </c>
       <c r="AK22" s="1">
-        <v>3.273087</v>
+        <v>3.2730869999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.186000</v>
+        <v>974.18600000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.688400</v>
+        <v>-87.688400000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>11794.064597</v>
+        <v>11794.064597000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>3.276129</v>
+        <v>3.2761290000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.419000</v>
+        <v>983.41899999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.689000</v>
+        <v>-102.68899999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>11804.880327</v>
+        <v>11804.880327000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>3.279133</v>
+        <v>3.2791329999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.823000</v>
+        <v>994.82299999999998</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.291000</v>
+        <v>-124.291</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>11815.848890</v>
+        <v>11815.848889999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>3.282180</v>
+        <v>3.2821799999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.440000</v>
+        <v>1004.44</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.079000</v>
+        <v>-143.07900000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>11826.839238</v>
       </c>
       <c r="BE22" s="1">
-        <v>3.285233</v>
+        <v>3.2852329999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.680000</v>
+        <v>1049.68</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.135000</v>
+        <v>-228.13499999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>11838.160928</v>
+        <v>11838.160927999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>3.288378</v>
+        <v>3.2883779999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1128.910000</v>
+        <v>1128.9100000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-364.841000</v>
+        <v>-364.84100000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>11849.022780</v>
+        <v>11849.022779999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>3.291395</v>
+        <v>3.2913950000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1260.250000</v>
+        <v>1260.25</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.697000</v>
+        <v>-576.697</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>11859.638655</v>
+        <v>11859.638655000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>3.294344</v>
+        <v>3.2943440000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1408.510000</v>
+        <v>1408.51</v>
       </c>
       <c r="BV22" s="1">
-        <v>-803.066000</v>
+        <v>-803.06600000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>11871.101200</v>
+        <v>11871.101199999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>3.297528</v>
+        <v>3.2975279999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1571.400000</v>
+        <v>1571.4</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1039.860000</v>
+        <v>-1039.8599999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>11884.085007</v>
       </c>
       <c r="CD22" s="1">
-        <v>3.301135</v>
+        <v>3.3011349999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1985.690000</v>
+        <v>1985.69</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1591.540000</v>
+        <v>-1591.54</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>11711.413715</v>
+        <v>11711.413715000001</v>
       </c>
       <c r="B23" s="1">
-        <v>3.253170</v>
+        <v>3.2531699999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>903.473000</v>
+        <v>903.47299999999996</v>
       </c>
       <c r="D23" s="1">
-        <v>-195.629000</v>
+        <v>-195.62899999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>11721.627829</v>
+        <v>11721.627828999999</v>
       </c>
       <c r="G23" s="1">
         <v>3.256008</v>
       </c>
       <c r="H23" s="1">
-        <v>920.438000</v>
+        <v>920.43799999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.421000</v>
+        <v>-165.42099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>11731.829587</v>
@@ -5908,43 +6324,43 @@
         <v>3.258842</v>
       </c>
       <c r="M23" s="1">
-        <v>941.721000</v>
+        <v>941.721</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.280000</v>
+        <v>-118.28</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>11742.429083</v>
+        <v>11742.429083000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>3.261786</v>
+        <v>3.2617859999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>948.069000</v>
+        <v>948.06899999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.126000</v>
+        <v>-103.126</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>11752.533580</v>
+        <v>11752.533579999999</v>
       </c>
       <c r="V23" s="1">
-        <v>3.264593</v>
+        <v>3.2645930000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>954.321000</v>
+        <v>954.32100000000003</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.487100</v>
+        <v>-89.487099999999998</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>11762.779902</v>
@@ -5953,270 +6369,270 @@
         <v>3.267439</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.489000</v>
+        <v>961.48900000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.101600</v>
+        <v>-80.101600000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>11773.206801</v>
       </c>
       <c r="AF23" s="1">
-        <v>3.270335</v>
+        <v>3.2703350000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.241000</v>
+        <v>966.24099999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.778400</v>
+        <v>-79.778400000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>11783.534017</v>
       </c>
       <c r="AK23" s="1">
-        <v>3.273204</v>
+        <v>3.2732039999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.207000</v>
+        <v>974.20699999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.662000</v>
+        <v>-87.662000000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>11794.515429</v>
+        <v>11794.515428999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>3.276254</v>
+        <v>3.2762540000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.418000</v>
+        <v>983.41800000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.670000</v>
+        <v>-102.67</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>11805.193799</v>
+        <v>11805.193799000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>3.279220</v>
+        <v>3.27922</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.828000</v>
+        <v>994.82799999999997</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.304000</v>
+        <v>-124.304</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>11816.208952</v>
+        <v>11816.208952000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>3.282280</v>
+        <v>3.2822800000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.470000</v>
+        <v>1004.47</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.097000</v>
+        <v>-143.09700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>11827.203790</v>
+        <v>11827.20379</v>
       </c>
       <c r="BE23" s="1">
-        <v>3.285334</v>
+        <v>3.2853340000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.670000</v>
+        <v>1049.67</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.127000</v>
+        <v>-228.12700000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>11838.536363</v>
+        <v>11838.536362999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>3.288482</v>
+        <v>3.2884820000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1128.900000</v>
+        <v>1128.9000000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-364.861000</v>
+        <v>-364.86099999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>11849.419613</v>
       </c>
       <c r="BO23" s="1">
-        <v>3.291505</v>
+        <v>3.2915049999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1260.250000</v>
+        <v>1260.25</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.681000</v>
+        <v>-576.68100000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>11860.050830</v>
+        <v>11860.05083</v>
       </c>
       <c r="BT23" s="1">
-        <v>3.294459</v>
+        <v>3.2944589999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1408.540000</v>
+        <v>1408.54</v>
       </c>
       <c r="BV23" s="1">
-        <v>-803.061000</v>
+        <v>-803.06100000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>11871.534240</v>
+        <v>11871.534240000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>3.297648</v>
+        <v>3.2976480000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1571.290000</v>
+        <v>1571.29</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1039.770000</v>
+        <v>-1039.77</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>11884.630575</v>
+        <v>11884.630574999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>3.301286</v>
+        <v>3.3012860000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1984.230000</v>
+        <v>1984.23</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1590.650000</v>
+        <v>-1590.65</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>11711.801586</v>
       </c>
       <c r="B24" s="1">
-        <v>3.253278</v>
+        <v>3.2532779999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>903.607000</v>
+        <v>903.60699999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.689000</v>
+        <v>-195.68899999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>11721.972550</v>
+        <v>11721.97255</v>
       </c>
       <c r="G24" s="1">
         <v>3.256103</v>
       </c>
       <c r="H24" s="1">
-        <v>920.154000</v>
+        <v>920.154</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.630000</v>
+        <v>-165.63</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>11732.176247</v>
+        <v>11732.176246999999</v>
       </c>
       <c r="L24" s="1">
-        <v>3.258938</v>
+        <v>3.2589380000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>941.751000</v>
+        <v>941.75099999999998</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.367000</v>
+        <v>-118.367</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>11742.780714</v>
       </c>
       <c r="Q24" s="1">
-        <v>3.261884</v>
+        <v>3.2618839999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>948.072000</v>
+        <v>948.072</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.112000</v>
+        <v>-103.11199999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>11752.877307</v>
+        <v>11752.877307000001</v>
       </c>
       <c r="V24" s="1">
         <v>3.264688</v>
       </c>
       <c r="W24" s="1">
-        <v>954.359000</v>
+        <v>954.35900000000004</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.474800</v>
+        <v>-89.474800000000002</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>11763.184174</v>
       </c>
       <c r="AA24" s="1">
-        <v>3.267551</v>
+        <v>3.2675510000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.295000</v>
+        <v>961.29499999999996</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.212700</v>
+        <v>-80.212699999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>11773.622449</v>
@@ -6225,88 +6641,88 @@
         <v>3.270451</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.305000</v>
+        <v>966.30499999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.774900</v>
+        <v>-79.774900000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>11783.821219</v>
+        <v>11783.821218999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>3.273284</v>
+        <v>3.2732839999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.203000</v>
+        <v>974.20299999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.682300</v>
+        <v>-87.682299999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>11794.783574</v>
+        <v>11794.783573999999</v>
       </c>
       <c r="AP24" s="1">
         <v>3.276329</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.429000</v>
+        <v>983.42899999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.680000</v>
+        <v>-102.68</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>11805.561862</v>
       </c>
       <c r="AU24" s="1">
-        <v>3.279323</v>
+        <v>3.2793230000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.823000</v>
+        <v>994.82299999999998</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.304000</v>
+        <v>-124.304</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>11816.565609</v>
+        <v>11816.565608999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>3.282379</v>
+        <v>3.2823790000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.450000</v>
+        <v>1004.45</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.099000</v>
+        <v>-143.09899999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>11827.562873</v>
+        <v>11827.562873000001</v>
       </c>
       <c r="BE24" s="1">
         <v>3.285434</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.670000</v>
+        <v>1049.67</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.109000</v>
+        <v>-228.10900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>11839.287801</v>
@@ -6315,28 +6731,28 @@
         <v>3.288691</v>
       </c>
       <c r="BK24" s="1">
-        <v>1128.900000</v>
+        <v>1128.9000000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-364.837000</v>
+        <v>-364.83699999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>11849.870977</v>
       </c>
       <c r="BO24" s="1">
-        <v>3.291631</v>
+        <v>3.2916310000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1260.250000</v>
+        <v>1260.25</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.659000</v>
+        <v>-576.65899999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>11860.482382</v>
@@ -6345,90 +6761,90 @@
         <v>3.294578</v>
       </c>
       <c r="BU24" s="1">
-        <v>1408.590000</v>
+        <v>1408.59</v>
       </c>
       <c r="BV24" s="1">
-        <v>-803.043000</v>
+        <v>-803.04300000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>11871.954846</v>
+        <v>11871.954846000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>3.297765</v>
+        <v>3.2977650000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1571.330000</v>
+        <v>1571.33</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1039.910000</v>
+        <v>-1039.9100000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>11885.170754</v>
+        <v>11885.170754000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>3.301436</v>
+        <v>3.3014359999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>1984.120000</v>
+        <v>1984.12</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1592.210000</v>
+        <v>-1592.21</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>11712.144818</v>
+        <v>11712.144818000001</v>
       </c>
       <c r="B25" s="1">
         <v>3.253374</v>
       </c>
       <c r="C25" s="1">
-        <v>903.633000</v>
+        <v>903.63300000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-195.681000</v>
+        <v>-195.68100000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>11722.316278</v>
       </c>
       <c r="G25" s="1">
-        <v>3.256199</v>
+        <v>3.2561990000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>920.294000</v>
+        <v>920.29399999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.399000</v>
+        <v>-165.399</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>11732.523479</v>
+        <v>11732.523478999999</v>
       </c>
       <c r="L25" s="1">
-        <v>3.259034</v>
+        <v>3.2590340000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>941.681000</v>
+        <v>941.68100000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.278000</v>
+        <v>-118.27800000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>11743.188425</v>
@@ -6437,255 +6853,255 @@
         <v>3.261997</v>
       </c>
       <c r="R25" s="1">
-        <v>948.061000</v>
+        <v>948.06100000000004</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.105000</v>
+        <v>-103.105</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>11753.293915</v>
       </c>
       <c r="V25" s="1">
-        <v>3.264804</v>
+        <v>3.2648039999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>954.316000</v>
+        <v>954.31600000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.519700</v>
+        <v>-89.5197</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>11763.482770</v>
+        <v>11763.482770000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>3.267634</v>
+        <v>3.2676340000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.385000</v>
+        <v>961.38499999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.167700</v>
+        <v>-80.167699999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>11773.912608</v>
+        <v>11773.912608000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>3.270531</v>
+        <v>3.2705310000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.282000</v>
+        <v>966.28200000000004</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.811700</v>
+        <v>-79.811700000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>11784.171399</v>
+        <v>11784.171399000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>3.273381</v>
+        <v>3.2733810000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.220000</v>
+        <v>974.22</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.652400</v>
+        <v>-87.6524</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>11795.141891</v>
+        <v>11795.141890999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>3.276428</v>
+        <v>3.2764280000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.425000</v>
+        <v>983.42499999999995</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.678000</v>
+        <v>-102.678</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>11805.925398</v>
+        <v>11805.925397999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>3.279424</v>
+        <v>3.2794240000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.812000</v>
+        <v>994.81200000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.305000</v>
+        <v>-124.30500000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>11817.285303</v>
+        <v>11817.285303000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>3.282579</v>
+        <v>3.2825790000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.460000</v>
+        <v>1004.46</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.105000</v>
+        <v>-143.10499999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>11828.285049</v>
       </c>
       <c r="BE25" s="1">
-        <v>3.285635</v>
+        <v>3.2856350000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.670000</v>
+        <v>1049.67</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.134000</v>
+        <v>-228.13399999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>11839.662777</v>
       </c>
       <c r="BJ25" s="1">
-        <v>3.288795</v>
+        <v>3.2887949999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1128.880000</v>
+        <v>1128.8800000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-364.845000</v>
+        <v>-364.84500000000003</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>11850.239467</v>
+        <v>11850.239466999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>3.291733</v>
+        <v>3.2917329999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1260.250000</v>
+        <v>1260.25</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.682000</v>
+        <v>-576.68200000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>11860.908909</v>
       </c>
       <c r="BT25" s="1">
-        <v>3.294697</v>
+        <v>3.2946970000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1408.540000</v>
+        <v>1408.54</v>
       </c>
       <c r="BV25" s="1">
-        <v>-803.024000</v>
+        <v>-803.024</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>11872.679471</v>
+        <v>11872.679470999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>3.297967</v>
+        <v>3.2979669999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1571.470000</v>
+        <v>1571.47</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1039.810000</v>
+        <v>-1039.81</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>11886.011969</v>
+        <v>11886.011968999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>3.301670</v>
+        <v>3.3016700000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1983.860000</v>
+        <v>1983.86</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1590.580000</v>
+        <v>-1590.58</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>11712.489537</v>
+        <v>11712.489536999999</v>
       </c>
       <c r="B26" s="1">
-        <v>3.253469</v>
+        <v>3.2534689999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>903.531000</v>
+        <v>903.53099999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.524000</v>
+        <v>-195.524</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>11722.748342</v>
+        <v>11722.748342000001</v>
       </c>
       <c r="G26" s="1">
         <v>3.256319</v>
       </c>
       <c r="H26" s="1">
-        <v>920.523000</v>
+        <v>920.52300000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.430000</v>
+        <v>-165.43</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>11732.944054</v>
       </c>
       <c r="L26" s="1">
-        <v>3.259151</v>
+        <v>3.2591510000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>941.773000</v>
+        <v>941.77300000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.490000</v>
+        <v>-118.49</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>11743.484536</v>
@@ -6694,13 +7110,13 @@
         <v>3.262079</v>
       </c>
       <c r="R26" s="1">
-        <v>948.085000</v>
+        <v>948.08500000000004</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.102000</v>
+        <v>-103.102</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>11753.587371</v>
@@ -6709,178 +7125,178 @@
         <v>3.264885</v>
       </c>
       <c r="W26" s="1">
-        <v>954.289000</v>
+        <v>954.28899999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.433700</v>
+        <v>-89.433700000000002</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>11763.830431</v>
       </c>
       <c r="AA26" s="1">
-        <v>3.267731</v>
+        <v>3.2677309999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.336000</v>
+        <v>961.33600000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.029500</v>
+        <v>-80.029499999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>11774.258353</v>
+        <v>11774.258352999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.270627</v>
+        <v>3.2706270000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.284000</v>
+        <v>966.28399999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.792100</v>
+        <v>-79.792100000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>11784.520577</v>
+        <v>11784.520576999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>3.273478</v>
+        <v>3.2734779999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.179000</v>
+        <v>974.17899999999997</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.653100</v>
+        <v>-87.653099999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>11795.691967</v>
+        <v>11795.691967000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>3.276581</v>
+        <v>3.2765810000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.412000</v>
+        <v>983.41200000000003</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.687000</v>
+        <v>-102.687</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>11806.663941</v>
+        <v>11806.663941000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>3.279629</v>
+        <v>3.2796289999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.829000</v>
+        <v>994.82899999999995</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.283000</v>
+        <v>-124.283</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>11817.644374</v>
       </c>
       <c r="AZ26" s="1">
-        <v>3.282679</v>
+        <v>3.2826789999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.470000</v>
+        <v>1004.47</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.069000</v>
+        <v>-143.06899999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>11828.647159</v>
       </c>
       <c r="BE26" s="1">
-        <v>3.285735</v>
+        <v>3.2857349999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.660000</v>
+        <v>1049.6600000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.128000</v>
+        <v>-228.12799999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>11840.038249</v>
+        <v>11840.038248999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>3.288900</v>
+        <v>3.2888999999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1128.910000</v>
+        <v>1128.9100000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-364.874000</v>
+        <v>-364.87400000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>11850.955226</v>
       </c>
       <c r="BO26" s="1">
-        <v>3.291932</v>
+        <v>3.2919320000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1260.260000</v>
+        <v>1260.26</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.686000</v>
+        <v>-576.68600000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>11861.624669</v>
+        <v>11861.624669000001</v>
       </c>
       <c r="BT26" s="1">
         <v>3.294896</v>
       </c>
       <c r="BU26" s="1">
-        <v>1408.570000</v>
+        <v>1408.57</v>
       </c>
       <c r="BV26" s="1">
-        <v>-803.077000</v>
+        <v>-803.077</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>11872.803501</v>
       </c>
       <c r="BY26" s="1">
-        <v>3.298001</v>
+        <v>3.2980010000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1571.290000</v>
+        <v>1571.29</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1039.810000</v>
+        <v>-1039.81</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>11886.250011</v>
@@ -6889,15 +7305,16 @@
         <v>3.301736</v>
       </c>
       <c r="CE26" s="1">
-        <v>1983.770000</v>
+        <v>1983.77</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1590.740000</v>
+        <v>-1590.74</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>